--- a/medicine/Mort/Monument_aux_morts_d'Auchel/Monument_aux_morts_d'Auchel.xlsx
+++ b/medicine/Mort/Monument_aux_morts_d'Auchel/Monument_aux_morts_d'Auchel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Monument_aux_morts_d%27Auchel</t>
+          <t>Monument_aux_morts_d'Auchel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monument aux morts d'Auchel, d'inspiration pacifiste, est situé dans la commune d'Auchel dans le département du Pas-de-Calais et la région Nord-Pas-de-Calais.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Monument_aux_morts_d%27Auchel</t>
+          <t>Monument_aux_morts_d'Auchel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Contexte historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1924, le projet du sculpteur Félix-Alexandre Desruelles est retenu pour l'érection d'un monument aux morts. 
-Le monument est inauguré en 1928, et fait l’objet d’une inscription au titre des monuments historiques depuis le 18 décembre 2009[1].
+Le monument est inauguré en 1928, et fait l’objet d’une inscription au titre des monuments historiques depuis le 18 décembre 2009.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Monument_aux_morts_d%27Auchel</t>
+          <t>Monument_aux_morts_d'Auchel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Descriptif</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Situé dans un petit jardin, à l'angle de la rue Jean-Jaurès et du boulevard de la Paix, deux groupes sculptés se succèdent: l'Humanité en deuil et la Paix au pays noir.
 l'Humanité en deuil (2,40 m x 2,65 m): ou l'humanité sur le champ de bataille, où la figure féminine joint les mains dans une prière muette devant le corps d'un soldat.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Monument_aux_morts_d%27Auchel</t>
+          <t>Monument_aux_morts_d'Auchel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Les victimes inscrites</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À proximité des deux sculptures se dresse la liste[2] des victimes locales, tombées durant la Première Guerre mondiale et après (de suites consécutives), durant la Seconde Guerre mondiale, ainsi que la Guerre d'Indochine.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À proximité des deux sculptures se dresse la liste des victimes locales, tombées durant la Première Guerre mondiale et après (de suites consécutives), durant la Seconde Guerre mondiale, ainsi que la Guerre d'Indochine.
 </t>
         </is>
       </c>
